--- a/ACADAMIC MONITORING TEAM 01.08.2023/OSC/TEACHER ATTENDANCE NOT MARKED 22082023.xlsx
+++ b/ACADAMIC MONITORING TEAM 01.08.2023/OSC/TEACHER ATTENDANCE NOT MARKED 22082023.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VASU\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26948214-45B2-4A8B-BEA7-863671434A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA037309-8449-46E6-A01E-6F258D072E75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="193">
   <si>
     <t>S.No.</t>
   </si>
@@ -604,12 +598,24 @@
   </si>
   <si>
     <t>TEACHER ATTENDANCE NOT MARKED LIST ON 22.08.2022</t>
+  </si>
+  <si>
+    <t>AIDED</t>
+  </si>
+  <si>
+    <t>GOVT</t>
+  </si>
+  <si>
+    <t>EMRS</t>
+  </si>
+  <si>
+    <t>APRS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,7 +783,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -829,7 +835,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1023,21 +1029,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB411C1D-12CA-4B78-8D1E-87C4C99182DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD109"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1051,7 +1057,7 @@
     <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>188</v>
       </c>
@@ -1061,7 +1067,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1101,7 +1107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -1118,8 +1124,11 @@
         <v>9440527517</v>
       </c>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1136,8 +1145,11 @@
         <v>9492019417</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1154,8 +1166,11 @@
         <v>8374992538</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1172,8 +1187,11 @@
         <v>9014367175</v>
       </c>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1190,8 +1208,11 @@
         <v>9490217106</v>
       </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1208,8 +1229,11 @@
         <v>6304873057</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1226,8 +1250,11 @@
         <v>8500185672</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1244,8 +1271,11 @@
         <v>9492855820</v>
       </c>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1262,8 +1292,11 @@
         <v>6303508032</v>
       </c>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1280,8 +1313,11 @@
         <v>9347155148</v>
       </c>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1298,8 +1334,11 @@
         <v>8500035376</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1316,8 +1355,11 @@
         <v>9494659310</v>
       </c>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1332,8 +1374,11 @@
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1350,8 +1395,11 @@
         <v>9441218823</v>
       </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1368,8 +1416,11 @@
         <v>9491062338</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1386,8 +1437,11 @@
         <v>9493017210</v>
       </c>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1404,8 +1458,11 @@
         <v>9490027403</v>
       </c>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1422,8 +1479,11 @@
         <v>9346287567</v>
       </c>
       <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1440,8 +1500,11 @@
         <v>9492745409</v>
       </c>
       <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1458,8 +1521,11 @@
         <v>6304751961</v>
       </c>
       <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -1476,8 +1542,11 @@
         <v>9440665095</v>
       </c>
       <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -1495,7 +1564,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -1513,7 +1582,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -1531,7 +1600,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -1549,7 +1618,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -1567,7 +1636,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -1585,7 +1654,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -1603,7 +1672,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>29</v>
       </c>
